--- a/data/trans_dic/P16B05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,55; 100,0</t>
+          <t>47,72; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,32; 100,0</t>
+          <t>67,28; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 100,0</t>
+          <t>23,26; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,7 +806,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,7; 100,0</t>
+          <t>46,7; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,55; 100,0</t>
+          <t>73,47; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,55; 100,0</t>
+          <t>81,05; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 100,0</t>
+          <t>86,06; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,11; 100,0</t>
+          <t>73,36; 100,0</t>
         </is>
       </c>
     </row>
@@ -930,7 +931,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,79; 100,0</t>
+          <t>57,94; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,72; 100,0</t>
+          <t>77,05; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,68; 100,0</t>
+          <t>82,1; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,29; 100,0</t>
+          <t>85,53; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,46; 100,0</t>
+          <t>84,25; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,97; 97,54</t>
+          <t>71,97; 97,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,08; 100,0</t>
+          <t>90,13; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,43; 100,0</t>
+          <t>90,01; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,06; 97,1</t>
+          <t>81,44; 97,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,44; 100,0</t>
+          <t>92,92; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,89; 99,14</t>
+          <t>91,37; 99,12</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,51; 100,0</t>
+          <t>70,05; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,9; 100,0</t>
+          <t>71,26; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,28; 100,0</t>
+          <t>88,93; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 100,0</t>
+          <t>91,34; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,85; 100,0</t>
+          <t>84,97; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,11; 99,13</t>
+          <t>92,41; 99,14</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,28; 98,54</t>
+          <t>86,97; 98,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,1; 97,54</t>
+          <t>86,21; 98,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,76</t>
+          <t>84,04; 97,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,69; 100,0</t>
+          <t>93,64; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,51; 98,21</t>
+          <t>90,04; 98,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,88; 97,38</t>
+          <t>90,32; 97,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,67; 100,0</t>
+          <t>97,68; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,23</t>
+          <t>95,67; 99,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,58; 96,72</t>
+          <t>90,85; 96,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,85; 99,74</t>
+          <t>97,57; 99,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,1; 98,6</t>
+          <t>95,31; 98,67</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos tranquilizantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12161</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17602</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11139</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10790</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11115</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23739</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22951</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28716</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7192; 15072</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10084; 12161</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15748; 17602</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9392; 11139</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8947; 10790</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9371; 11115</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17635; 26211</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20874; 22951</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26829; 28716</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4531</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8939</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14876</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16881</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15066</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19407</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32876</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1256; 5402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13674; 15994</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5158; 11045</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13116; 14876</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13089; 17816</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13034; 15066</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16436; 20278</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29097; 33811</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19155; 26111</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12940</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29594</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15076</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7880</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23757</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13109</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20820</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53350</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28185</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11309; 12940</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27427; 29594</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13292; 15076</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6245; 7880</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21874; 23757</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8743; 15090</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19098; 20820</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51268; 53350</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23244; 30166</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27881</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34042</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40663</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32809</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50914</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61127</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60690</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>84956</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23754; 28935</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29992; 35066</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35932; 42649</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26829; 36179</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46762; 51883</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56113; 62338</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>53923; 64269</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80796; 86949</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>95927; 104059</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12821</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14181</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24422</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36997</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64511</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82278</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49818</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>78692</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>106700</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9671; 13807</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12393; 14181</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18204; 25547</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33816; 38027</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>62487; 64511</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>77040; 84343</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44043; 51834</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76682; 78692</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>101549; 108943</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5078</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65077</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>80904</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79567</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>69494</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>84817</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>84645</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2816; 4417</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2175; 3913</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3525; 5078</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>59949; 67982</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>78865; 80904</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>77421; 79567</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63228; 72394</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82760; 84817</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82512; 84645</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>109884</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111780</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>168778</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>247758</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>262261</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>243968</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>357642</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>374041</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67712; 78646</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>103859; 110908</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>105338; 114931</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>160883; 173498</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>243873; 249662</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>255937; 265566</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>235036; 250604</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>351797; 359630</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>366497; 379415</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>